--- a/static/hojas_vida/CALIDAD_8CN23502MC.xlsx
+++ b/static/hojas_vida/CALIDAD_8CN23502MC.xlsx
@@ -2544,9 +2544,17 @@
       </c>
     </row>
     <row r="34" ht="164.25" customHeight="1" s="59" thickBot="1">
-      <c r="A34" s="171" t="n"/>
+      <c r="A34" s="171" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
+        </is>
+      </c>
       <c r="B34" s="138" t="n"/>
-      <c r="C34" s="172" t="n"/>
+      <c r="C34" s="172" t="inlineStr">
+        <is>
+          <t>cambio de pantalla</t>
+        </is>
+      </c>
       <c r="D34" s="137" t="n"/>
       <c r="E34" s="137" t="n"/>
       <c r="F34" s="137" t="n"/>
@@ -2556,7 +2564,11 @@
       <c r="J34" s="137" t="n"/>
       <c r="K34" s="137" t="n"/>
       <c r="L34" s="138" t="n"/>
-      <c r="M34" s="27" t="n"/>
+      <c r="M34" s="27" t="inlineStr">
+        <is>
+          <t>SV Romero Romero Miguel Ángel</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="168" customHeight="1" s="59" thickBot="1">
       <c r="A35" s="171" t="n"/>
